--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1547.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1547.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.320405081071344</v>
+        <v>1.639683365821838</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>3.312361240386963</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.223691463470459</v>
       </c>
       <c r="D1">
-        <v>1.467507261362966</v>
+        <v>1.31499981880188</v>
       </c>
       <c r="E1">
-        <v>0.8842001001800571</v>
+        <v>0.7718048095703125</v>
       </c>
     </row>
   </sheetData>
